--- a/run_n_epochs_excel.xlsx
+++ b/run_n_epochs_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakon\Skole\NMBU_8\INF205\inf205_project_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAE9DA1-C810-4303-857C-D3793ECAC48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4248ABDF-9CE4-4C18-A2F5-70A220721954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9C26DA6-D527-45DB-9AE6-E4A2DBFF6F9B}"/>
   </bookViews>
@@ -134,7 +134,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime for increased epochs</a:t>
+              <a:t>Runtime scaled with epochs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -147,6 +147,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -157,17 +174,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Epochs</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -184,220 +190,266 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="1260000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </c15:spPr>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$41</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$2,Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$8,Sheet1!$A$10,Sheet1!$A$12,Sheet1!$A$14,Sheet1!$A$16,Sheet1!$A$18,Sheet1!$A$20,Sheet1!$A$22,Sheet1!$A$24,Sheet1!$A$26,Sheet1!$A$28,Sheet1!$A$30,Sheet1!$A$32,Sheet1!$A$34,Sheet1!$A$36,Sheet1!$A$38,Sheet1!$A$40:$A$41)</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3500</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5500</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>6500</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7500</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>8500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>9500</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>10500</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>11500</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>12500</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>14500</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>15500</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>16500</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>17500</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>18500</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>19500</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$41</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$B$2,Sheet1!$B$4,Sheet1!$B$6,Sheet1!$B$8,Sheet1!$B$10,Sheet1!$B$12,Sheet1!$B$14,Sheet1!$B$16,Sheet1!$B$18,Sheet1!$B$20,Sheet1!$B$22,Sheet1!$B$24,Sheet1!$B$26,Sheet1!$B$28,Sheet1!$B$30,Sheet1!$B$32,Sheet1!$B$34,Sheet1!$B$36,Sheet1!$B$38,Sheet1!$B$40:$B$41)</c:f>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1.9537</c:v>
+                  <c:v>1.4818499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1167400000000001</c:v>
+                  <c:v>3.0281400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0752799999999993</c:v>
+                  <c:v>5.1415800000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>6.6210199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0200600000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0259</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>11.2516</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.8775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.553000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.300799999999999</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.448499999999999</c:v>
+                  <c:v>12.071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.8508</c:v>
+                  <c:v>13.8788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.508600000000001</c:v>
+                  <c:v>13.048500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.978700000000003</c:v>
+                  <c:v>14.324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.392499999999998</c:v>
+                  <c:v>15.5502</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.473199999999999</c:v>
+                  <c:v>17.338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.497799999999998</c:v>
+                  <c:v>19.384499999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.710900000000002</c:v>
+                  <c:v>19.336600000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.2072</c:v>
+                  <c:v>21.745000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.105699999999999</c:v>
+                  <c:v>23.145499999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.773800000000001</c:v>
+                  <c:v>24.988900000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.040199999999999</c:v>
+                  <c:v>24.883900000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.7074</c:v>
+                  <c:v>26.006900000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.937600000000003</c:v>
+                  <c:v>31.430099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.2333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.400799999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.953699999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.791699999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.924900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.4191</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.948399999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.945099999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.356900000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.350499999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.851700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.395699999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.543399999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.707599999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.950800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.2395</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.001600000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.3842</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.862099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,14 +457,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D7F-4359-B180-847CEE022FF5}"/>
+              <c16:uniqueId val="{00000000-5060-4BDD-99D5-EF651A8A33AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -440,11 +491,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1599247215"/>
-        <c:axId val="1599226831"/>
+        <c:axId val="1811790448"/>
+        <c:axId val="1811804592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1599247215"/>
+        <c:axId val="1811790448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,6 +532,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -513,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599226831"/>
+        <c:crossAx val="1811804592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -521,7 +589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1599226831"/>
+        <c:axId val="1811804592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,6 +626,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -587,7 +672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599247215"/>
+        <c:crossAx val="1811790448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -640,27 +725,596 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDEE2AF-CF63-A357-980F-B5674FD664D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAC6DFE-DFA2-B2FF-8EE9-478FDEE609C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C90EC48-84A4-4685-B352-7D0A72D98B24}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1653,7 @@
         <v>500</v>
       </c>
       <c r="B2">
-        <v>1.9537</v>
+        <v>1.4818499999999999</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -1013,7 +1667,7 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>2.9381900000000001</v>
+        <v>3.0281400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1021,7 +1675,7 @@
         <v>1500</v>
       </c>
       <c r="B4">
-        <v>5.1167400000000001</v>
+        <v>5.1415800000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,7 +1683,7 @@
         <v>2000</v>
       </c>
       <c r="B5">
-        <v>6.2779299999999996</v>
+        <v>6.6210199999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,7 +1691,7 @@
         <v>2500</v>
       </c>
       <c r="B6">
-        <v>8.0752799999999993</v>
+        <v>8.0200600000000009</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,7 +1699,7 @@
         <v>3000</v>
       </c>
       <c r="B7">
-        <v>9.9209300000000002</v>
+        <v>10.0259</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,7 +1715,7 @@
         <v>4000</v>
       </c>
       <c r="B9">
-        <v>12.2379</v>
+        <v>12.071</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1069,7 +1723,7 @@
         <v>4500</v>
       </c>
       <c r="B10">
-        <v>13.8775</v>
+        <v>13.8788</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,7 +1731,7 @@
         <v>5000</v>
       </c>
       <c r="B11">
-        <v>15.9838</v>
+        <v>13.048500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,7 +1739,7 @@
         <v>5500</v>
       </c>
       <c r="B12">
-        <v>16.553000000000001</v>
+        <v>14.324999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,7 +1747,7 @@
         <v>6000</v>
       </c>
       <c r="B13">
-        <v>18.9466</v>
+        <v>15.5502</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1101,7 +1755,7 @@
         <v>6500</v>
       </c>
       <c r="B14">
-        <v>20.300799999999999</v>
+        <v>17.338000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,7 +1763,7 @@
         <v>7000</v>
       </c>
       <c r="B15">
-        <v>21.8995</v>
+        <v>19.384499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1117,7 +1771,7 @@
         <v>7500</v>
       </c>
       <c r="B16">
-        <v>23.448499999999999</v>
+        <v>19.336600000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1779,7 @@
         <v>8000</v>
       </c>
       <c r="B17">
-        <v>24.4589</v>
+        <v>21.745000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1787,7 @@
         <v>8500</v>
       </c>
       <c r="B18">
-        <v>26.8508</v>
+        <v>23.145499999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1795,7 @@
         <v>9000</v>
       </c>
       <c r="B19">
-        <v>27.4297</v>
+        <v>24.988900000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1803,7 @@
         <v>9500</v>
       </c>
       <c r="B20">
-        <v>28.508600000000001</v>
+        <v>24.883900000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1811,7 @@
         <v>10000</v>
       </c>
       <c r="B21">
-        <v>31.557600000000001</v>
+        <v>26.006900000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1819,7 @@
         <v>10500</v>
       </c>
       <c r="B22">
-        <v>32.978700000000003</v>
+        <v>31.430099999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1827,7 @@
         <v>11000</v>
       </c>
       <c r="B23">
-        <v>32.651699999999998</v>
+        <v>30.2333</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1835,7 @@
         <v>11500</v>
       </c>
       <c r="B24">
-        <v>34.392499999999998</v>
+        <v>32.400799999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1843,7 @@
         <v>12000</v>
       </c>
       <c r="B25">
-        <v>37.733699999999999</v>
+        <v>32.953699999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1851,7 @@
         <v>12500</v>
       </c>
       <c r="B26">
-        <v>37.473199999999999</v>
+        <v>34.791699999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1859,7 @@
         <v>13000</v>
       </c>
       <c r="B27">
-        <v>36.244599999999998</v>
+        <v>36.924900000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1867,7 @@
         <v>13500</v>
       </c>
       <c r="B28">
-        <v>39.497799999999998</v>
+        <v>37.4191</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1875,7 @@
         <v>14000</v>
       </c>
       <c r="B29">
-        <v>41.434699999999999</v>
+        <v>38.948399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1883,7 @@
         <v>14500</v>
       </c>
       <c r="B30">
-        <v>41.710900000000002</v>
+        <v>40.945099999999996</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1891,7 @@
         <v>15000</v>
       </c>
       <c r="B31">
-        <v>44.432299999999998</v>
+        <v>41.356900000000003</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +1899,7 @@
         <v>15500</v>
       </c>
       <c r="B32">
-        <v>45.2072</v>
+        <v>40.350499999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1907,7 @@
         <v>16000</v>
       </c>
       <c r="B33">
-        <v>47.241500000000002</v>
+        <v>40.851700000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1915,7 @@
         <v>16500</v>
       </c>
       <c r="B34">
-        <v>48.105699999999999</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1923,7 @@
         <v>17000</v>
       </c>
       <c r="B35">
-        <v>52.710599999999999</v>
+        <v>47.395699999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1931,7 @@
         <v>17500</v>
       </c>
       <c r="B36">
-        <v>50.773800000000001</v>
+        <v>48.543399999999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1939,7 @@
         <v>18000</v>
       </c>
       <c r="B37">
-        <v>52.732100000000003</v>
+        <v>49.707599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1947,7 @@
         <v>18500</v>
       </c>
       <c r="B38">
-        <v>54.040199999999999</v>
+        <v>47.950800000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1955,7 @@
         <v>19000</v>
       </c>
       <c r="B39">
-        <v>55.754300000000001</v>
+        <v>50.2395</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +1963,7 @@
         <v>19500</v>
       </c>
       <c r="B40">
-        <v>56.7074</v>
+        <v>50.001600000000003</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1971,15 @@
         <v>20000</v>
       </c>
       <c r="B41">
-        <v>57.937600000000003</v>
+        <v>51.3842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20500</v>
+      </c>
+      <c r="B42">
+        <v>52.862099999999998</v>
       </c>
     </row>
   </sheetData>
